--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/74/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/74/FD_Curve.xlsx
@@ -488,10 +488,10 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.42499</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3424.99</v>
       </c>
     </row>
     <row r="6">
@@ -499,21 +499,21 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>4.25668</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>4256.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155036</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>5.03458</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>5034.58</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>5.84208</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>5842.08</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>6.49051</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>6490.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247924</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>7.08191</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>7081.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278849</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0216</v>
+        <v>7.598170000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>10021.6</v>
+        <v>7598.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309783</v>
+        <v>0.309774</v>
       </c>
       <c r="B12" t="n">
-        <v>11.1847</v>
+        <v>8.06446</v>
       </c>
       <c r="C12" t="n">
-        <v>11184.7</v>
+        <v>8064.46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340708</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1567</v>
+        <v>8.48624</v>
       </c>
       <c r="C13" t="n">
-        <v>12156.7</v>
+        <v>8486.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371633</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>13.341</v>
+        <v>8.73893</v>
       </c>
       <c r="C14" t="n">
-        <v>13341</v>
+        <v>8738.93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402558</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2149</v>
+        <v>8.871129999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>14214.9</v>
+        <v>8871.129999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433483</v>
+        <v>0.43347</v>
       </c>
       <c r="B16" t="n">
-        <v>14.7771</v>
+        <v>8.866370000000002</v>
       </c>
       <c r="C16" t="n">
-        <v>14777.1</v>
+        <v>8866.370000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464403</v>
+        <v>0.464395</v>
       </c>
       <c r="B17" t="n">
-        <v>15.306</v>
+        <v>8.83649</v>
       </c>
       <c r="C17" t="n">
-        <v>15306</v>
+        <v>8836.49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495328</v>
+        <v>0.49532</v>
       </c>
       <c r="B18" t="n">
-        <v>15.7441</v>
+        <v>8.80223</v>
       </c>
       <c r="C18" t="n">
-        <v>15744.1</v>
+        <v>8802.23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526253</v>
+        <v>0.526245</v>
       </c>
       <c r="B19" t="n">
-        <v>16.0897</v>
+        <v>8.7661</v>
       </c>
       <c r="C19" t="n">
-        <v>16089.7</v>
+        <v>8766.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557178</v>
+        <v>0.5571700000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>16.373</v>
+        <v>8.72799</v>
       </c>
       <c r="C20" t="n">
-        <v>16373</v>
+        <v>8727.99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588103</v>
+        <v>0.588095</v>
       </c>
       <c r="B21" t="n">
-        <v>16.6773</v>
+        <v>8.6884</v>
       </c>
       <c r="C21" t="n">
-        <v>16677.3</v>
+        <v>8688.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191449999999999</v>
+        <v>0.619137</v>
       </c>
       <c r="B22" t="n">
-        <v>16.9592</v>
+        <v>8.647020000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>16959.2</v>
+        <v>8647.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650322</v>
+        <v>0.6503100000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>17.2188</v>
+        <v>8.60309</v>
       </c>
       <c r="C23" t="n">
-        <v>17218.8</v>
+        <v>8603.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681495</v>
+        <v>0.681487</v>
       </c>
       <c r="B24" t="n">
-        <v>17.4786</v>
+        <v>8.553930000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>17478.6</v>
+        <v>8553.93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126670000000001</v>
+        <v>0.712659</v>
       </c>
       <c r="B25" t="n">
-        <v>17.691</v>
+        <v>8.503110000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>17691</v>
+        <v>8503.110000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438439999999999</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>17.8873</v>
+        <v>8.446899999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>17887.3</v>
+        <v>8446.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775017</v>
+        <v>0.7750089999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>18.0675</v>
+        <v>8.38871</v>
       </c>
       <c r="C27" t="n">
-        <v>18067.5</v>
+        <v>8388.709999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80619</v>
+        <v>0.806181</v>
       </c>
       <c r="B28" t="n">
-        <v>18.2487</v>
+        <v>8.32516</v>
       </c>
       <c r="C28" t="n">
-        <v>18248.7</v>
+        <v>8325.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837367</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>18.3911</v>
+        <v>8.260610000000002</v>
       </c>
       <c r="C29" t="n">
-        <v>18391.1</v>
+        <v>8260.610000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685389999999999</v>
+        <v>0.8685310000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>18.5221</v>
+        <v>8.189410000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>18522.1</v>
+        <v>8189.41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899712</v>
+        <v>0.899703</v>
       </c>
       <c r="B31" t="n">
-        <v>18.6444</v>
+        <v>8.11819</v>
       </c>
       <c r="C31" t="n">
-        <v>18644.4</v>
+        <v>8118.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930889</v>
+        <v>0.930881</v>
       </c>
       <c r="B32" t="n">
-        <v>18.7518</v>
+        <v>8.039899999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>18751.8</v>
+        <v>8039.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620610000000001</v>
+        <v>0.962053</v>
       </c>
       <c r="B33" t="n">
-        <v>18.8499</v>
+        <v>7.96045</v>
       </c>
       <c r="C33" t="n">
-        <v>18849.9</v>
+        <v>7960.45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993238</v>
+        <v>0.9932299999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>18.9353</v>
+        <v>7.87542</v>
       </c>
       <c r="C34" t="n">
-        <v>18935.3</v>
+        <v>7875.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02425</v>
+        <v>1.02455</v>
       </c>
       <c r="B35" t="n">
-        <v>19.0039</v>
+        <v>7.787850000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>19003.9</v>
+        <v>7787.85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05522</v>
+        <v>1.05593</v>
       </c>
       <c r="B36" t="n">
-        <v>19.0469</v>
+        <v>7.69766</v>
       </c>
       <c r="C36" t="n">
-        <v>19046.9</v>
+        <v>7697.66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08619</v>
+        <v>1.08731</v>
       </c>
       <c r="B37" t="n">
-        <v>19.0839</v>
+        <v>7.602069999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>19083.9</v>
+        <v>7602.07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11715</v>
+        <v>1.11864</v>
       </c>
       <c r="B38" t="n">
-        <v>19.1024</v>
+        <v>3.20177</v>
       </c>
       <c r="C38" t="n">
-        <v>19102.4</v>
+        <v>3201.77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14812</v>
+        <v>1.14936</v>
       </c>
       <c r="B39" t="n">
-        <v>19.0987</v>
+        <v>7.7061</v>
       </c>
       <c r="C39" t="n">
-        <v>19098.7</v>
+        <v>7706.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17909</v>
+        <v>1.18055</v>
       </c>
       <c r="B40" t="n">
-        <v>19.0745</v>
+        <v>6.71544</v>
       </c>
       <c r="C40" t="n">
-        <v>19074.5</v>
+        <v>6715.44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21006</v>
+        <v>1.21143</v>
       </c>
       <c r="B41" t="n">
-        <v>19.0302</v>
+        <v>7.169770000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>19030.2</v>
+        <v>7169.77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24102</v>
+        <v>1.24255</v>
       </c>
       <c r="B42" t="n">
-        <v>18.9679</v>
+        <v>7.11592</v>
       </c>
       <c r="C42" t="n">
-        <v>18967.9</v>
+        <v>7115.92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27199</v>
+        <v>1.27317</v>
       </c>
       <c r="B43" t="n">
-        <v>18.8908</v>
+        <v>7.00016</v>
       </c>
       <c r="C43" t="n">
-        <v>18890.8</v>
+        <v>7000.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30296</v>
+        <v>1.30427</v>
       </c>
       <c r="B44" t="n">
-        <v>18.801</v>
+        <v>6.89784</v>
       </c>
       <c r="C44" t="n">
-        <v>18801</v>
+        <v>6897.84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33393</v>
+        <v>1.33542</v>
       </c>
       <c r="B45" t="n">
-        <v>18.6911</v>
+        <v>6.83242</v>
       </c>
       <c r="C45" t="n">
-        <v>18691.1</v>
+        <v>6832.42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3649</v>
+        <v>1.36603</v>
       </c>
       <c r="B46" t="n">
-        <v>18.5633</v>
+        <v>6.776520000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>18563.3</v>
+        <v>6776.52</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39586</v>
+        <v>1.39664</v>
       </c>
       <c r="B47" t="n">
-        <v>18.4174</v>
+        <v>6.70842</v>
       </c>
       <c r="C47" t="n">
-        <v>18417.4</v>
+        <v>6708.42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42683</v>
+        <v>1.42724</v>
       </c>
       <c r="B48" t="n">
-        <v>18.2626</v>
+        <v>6.57603</v>
       </c>
       <c r="C48" t="n">
-        <v>18262.6</v>
+        <v>6576.03</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4578</v>
+        <v>1.45785</v>
       </c>
       <c r="B49" t="n">
-        <v>18.0872</v>
+        <v>6.444</v>
       </c>
       <c r="C49" t="n">
-        <v>18087.2</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48876</v>
+        <v>1.48846</v>
       </c>
       <c r="B50" t="n">
-        <v>17.9098</v>
+        <v>6.32442</v>
       </c>
       <c r="C50" t="n">
-        <v>17909.8</v>
+        <v>6324.42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51973</v>
+        <v>1.51907</v>
       </c>
       <c r="B51" t="n">
-        <v>17.7103</v>
+        <v>6.101529999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>17710.3</v>
+        <v>6101.53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.5507</v>
+        <v>1.54968</v>
       </c>
       <c r="B52" t="n">
-        <v>17.5061</v>
+        <v>6.0015</v>
       </c>
       <c r="C52" t="n">
-        <v>17506.1</v>
+        <v>6001.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58167</v>
+        <v>1.58029</v>
       </c>
       <c r="B53" t="n">
-        <v>17.285</v>
+        <v>5.85285</v>
       </c>
       <c r="C53" t="n">
-        <v>17285</v>
+        <v>5852.85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61264</v>
+        <v>1.6109</v>
       </c>
       <c r="B54" t="n">
-        <v>17.0522</v>
+        <v>5.74335</v>
       </c>
       <c r="C54" t="n">
-        <v>17052.2</v>
+        <v>5743.35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6436</v>
+        <v>1.64152</v>
       </c>
       <c r="B55" t="n">
-        <v>16.8095</v>
+        <v>5.635890000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>16809.5</v>
+        <v>5635.89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67457</v>
+        <v>1.67265</v>
       </c>
       <c r="B56" t="n">
-        <v>16.547</v>
+        <v>5.54759</v>
       </c>
       <c r="C56" t="n">
-        <v>16547</v>
+        <v>5547.59</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70543</v>
+        <v>1.70373</v>
       </c>
       <c r="B57" t="n">
-        <v>15.0014</v>
+        <v>5.43245</v>
       </c>
       <c r="C57" t="n">
-        <v>15001.4</v>
+        <v>5432.45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73622</v>
+        <v>1.73452</v>
       </c>
       <c r="B58" t="n">
-        <v>13.6446</v>
+        <v>5.36557</v>
       </c>
       <c r="C58" t="n">
-        <v>13644.6</v>
+        <v>5365.57</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76764</v>
+        <v>1.76492</v>
       </c>
       <c r="B59" t="n">
-        <v>13.4575</v>
+        <v>5.276359999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>13457.5</v>
+        <v>5276.36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79867</v>
+        <v>1.79559</v>
       </c>
       <c r="B60" t="n">
-        <v>15.9309</v>
+        <v>5.21313</v>
       </c>
       <c r="C60" t="n">
-        <v>15930.9</v>
+        <v>5213.13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82953</v>
+        <v>1.82658</v>
       </c>
       <c r="B61" t="n">
-        <v>15.8757</v>
+        <v>5.10413</v>
       </c>
       <c r="C61" t="n">
-        <v>15875.7</v>
+        <v>5104.13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86043</v>
+        <v>1.85843</v>
       </c>
       <c r="B62" t="n">
-        <v>14.9794</v>
+        <v>5.02529</v>
       </c>
       <c r="C62" t="n">
-        <v>14979.4</v>
+        <v>5025.29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89148</v>
+        <v>1.89042</v>
       </c>
       <c r="B63" t="n">
-        <v>15.3021</v>
+        <v>4.902310000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>15302.1</v>
+        <v>4902.31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92247</v>
+        <v>1.92239</v>
       </c>
       <c r="B64" t="n">
-        <v>15.0631</v>
+        <v>4.800680000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>15063.1</v>
+        <v>4800.68</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95345</v>
+        <v>1.95328</v>
       </c>
       <c r="B65" t="n">
-        <v>14.5887</v>
+        <v>4.74095</v>
       </c>
       <c r="C65" t="n">
-        <v>14588.7</v>
+        <v>4740.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98454</v>
+        <v>1.98387</v>
       </c>
       <c r="B66" t="n">
-        <v>14.2642</v>
+        <v>4.67469</v>
       </c>
       <c r="C66" t="n">
-        <v>14264.2</v>
+        <v>4674.69</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01555</v>
+        <v>2.01478</v>
       </c>
       <c r="B67" t="n">
-        <v>14.1017</v>
+        <v>4.63555</v>
       </c>
       <c r="C67" t="n">
-        <v>14101.7</v>
+        <v>4635.55</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0466</v>
+        <v>2.04629</v>
       </c>
       <c r="B68" t="n">
-        <v>13.7084</v>
+        <v>4.56025</v>
       </c>
       <c r="C68" t="n">
-        <v>13708.4</v>
+        <v>4560.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0776</v>
+        <v>2.07699</v>
       </c>
       <c r="B69" t="n">
-        <v>13.3298</v>
+        <v>4.51753</v>
       </c>
       <c r="C69" t="n">
-        <v>13329.8</v>
+        <v>4517.53</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10865</v>
+        <v>2.1079</v>
       </c>
       <c r="B70" t="n">
-        <v>12.9369</v>
+        <v>4.45648</v>
       </c>
       <c r="C70" t="n">
-        <v>12936.9</v>
+        <v>4456.48</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13968</v>
+        <v>2.13989</v>
       </c>
       <c r="B71" t="n">
-        <v>12.6884</v>
+        <v>4.407100000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>12688.4</v>
+        <v>4407.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17067</v>
+        <v>2.17159</v>
       </c>
       <c r="B72" t="n">
-        <v>12.3432</v>
+        <v>4.333060000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>12343.2</v>
+        <v>4333.06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20151</v>
+        <v>2.202</v>
       </c>
       <c r="B73" t="n">
-        <v>12.04</v>
+        <v>4.310600000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>12040</v>
+        <v>4310.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23256</v>
+        <v>2.23244</v>
       </c>
       <c r="B74" t="n">
-        <v>11.6246</v>
+        <v>4.27264</v>
       </c>
       <c r="C74" t="n">
-        <v>11624.6</v>
+        <v>4272.64</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26354</v>
+        <v>2.26459</v>
       </c>
       <c r="B75" t="n">
-        <v>11.3228</v>
+        <v>4.22426</v>
       </c>
       <c r="C75" t="n">
-        <v>11322.8</v>
+        <v>4224.26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29476</v>
+        <v>2.29532</v>
       </c>
       <c r="B76" t="n">
-        <v>11.0999</v>
+        <v>4.17437</v>
       </c>
       <c r="C76" t="n">
-        <v>11099.9</v>
+        <v>4174.37</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32526</v>
+        <v>2.32604</v>
       </c>
       <c r="B77" t="n">
-        <v>10.7879</v>
+        <v>4.14372</v>
       </c>
       <c r="C77" t="n">
-        <v>10787.9</v>
+        <v>4143.72</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35671</v>
+        <v>2.35677</v>
       </c>
       <c r="B78" t="n">
-        <v>10.4687</v>
+        <v>4.100140000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>10468.7</v>
+        <v>4100.14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38728</v>
+        <v>2.38816</v>
       </c>
       <c r="B79" t="n">
-        <v>10.1713</v>
+        <v>4.065630000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>10171.3</v>
+        <v>4065.63</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.4187</v>
+        <v>2.41925</v>
       </c>
       <c r="B80" t="n">
-        <v>10.0412</v>
+        <v>4.0178</v>
       </c>
       <c r="C80" t="n">
-        <v>10041.2</v>
+        <v>4017.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44893</v>
+        <v>2.45033</v>
       </c>
       <c r="B81" t="n">
-        <v>9.8208</v>
+        <v>3.98254</v>
       </c>
       <c r="C81" t="n">
-        <v>9820.799999999999</v>
+        <v>3982.54</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48173</v>
+        <v>2.48141</v>
       </c>
       <c r="B82" t="n">
-        <v>9.672229999999999</v>
+        <v>3.94472</v>
       </c>
       <c r="C82" t="n">
-        <v>9672.23</v>
+        <v>3944.72</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51322</v>
+        <v>2.51117</v>
       </c>
       <c r="B83" t="n">
-        <v>9.466100000000001</v>
+        <v>3.89873</v>
       </c>
       <c r="C83" t="n">
-        <v>9466.1</v>
+        <v>3898.73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54424</v>
+        <v>2.54062</v>
       </c>
       <c r="B84" t="n">
-        <v>9.330500000000001</v>
+        <v>3.83815</v>
       </c>
       <c r="C84" t="n">
-        <v>9330.5</v>
+        <v>3838.15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57499</v>
+        <v>2.57166</v>
       </c>
       <c r="B85" t="n">
-        <v>9.076829999999999</v>
+        <v>3.84035</v>
       </c>
       <c r="C85" t="n">
-        <v>9076.83</v>
+        <v>3840.35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60457</v>
+        <v>2.60494</v>
       </c>
       <c r="B86" t="n">
-        <v>8.933310000000001</v>
+        <v>3.86042</v>
       </c>
       <c r="C86" t="n">
-        <v>8933.309999999999</v>
+        <v>3860.42</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63428</v>
+        <v>2.63822</v>
       </c>
       <c r="B87" t="n">
-        <v>8.81734</v>
+        <v>3.8592</v>
       </c>
       <c r="C87" t="n">
-        <v>8817.34</v>
+        <v>3859.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66738</v>
+        <v>2.6703</v>
       </c>
       <c r="B88" t="n">
-        <v>8.64509</v>
+        <v>3.83896</v>
       </c>
       <c r="C88" t="n">
-        <v>8645.09</v>
+        <v>3838.96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69927</v>
+        <v>2.70107</v>
       </c>
       <c r="B89" t="n">
-        <v>8.486049999999999</v>
+        <v>3.82911</v>
       </c>
       <c r="C89" t="n">
-        <v>8486.049999999999</v>
+        <v>3829.11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73111</v>
+        <v>2.73179</v>
       </c>
       <c r="B90" t="n">
-        <v>8.394909999999999</v>
+        <v>3.80314</v>
       </c>
       <c r="C90" t="n">
-        <v>8394.91</v>
+        <v>3803.14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7622</v>
+        <v>2.76251</v>
       </c>
       <c r="B91" t="n">
-        <v>8.26557</v>
+        <v>3.79459</v>
       </c>
       <c r="C91" t="n">
-        <v>8265.57</v>
+        <v>3794.59</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.7921</v>
+        <v>2.79323</v>
       </c>
       <c r="B92" t="n">
-        <v>8.1721</v>
+        <v>3.79472</v>
       </c>
       <c r="C92" t="n">
-        <v>8172.1</v>
+        <v>3794.72</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82214</v>
+        <v>2.82395</v>
       </c>
       <c r="B93" t="n">
-        <v>8.04425</v>
+        <v>3.76871</v>
       </c>
       <c r="C93" t="n">
-        <v>8044.25</v>
+        <v>3768.71</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85216</v>
+        <v>2.85467</v>
       </c>
       <c r="B94" t="n">
-        <v>8.0199</v>
+        <v>3.75686</v>
       </c>
       <c r="C94" t="n">
-        <v>8019.9</v>
+        <v>3756.86</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88086</v>
+        <v>2.88525</v>
       </c>
       <c r="B95" t="n">
-        <v>7.92083</v>
+        <v>3.71062</v>
       </c>
       <c r="C95" t="n">
-        <v>7920.83</v>
+        <v>3710.62</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91303</v>
+        <v>2.91383</v>
       </c>
       <c r="B96" t="n">
-        <v>7.9119</v>
+        <v>3.70445</v>
       </c>
       <c r="C96" t="n">
-        <v>7911.9</v>
+        <v>3704.45</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94746</v>
+        <v>2.94201</v>
       </c>
       <c r="B97" t="n">
-        <v>7.86483</v>
+        <v>3.69563</v>
       </c>
       <c r="C97" t="n">
-        <v>7864.83</v>
+        <v>3695.63</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98034</v>
+        <v>2.97017</v>
       </c>
       <c r="B98" t="n">
-        <v>7.83342</v>
+        <v>3.6568</v>
       </c>
       <c r="C98" t="n">
-        <v>7833.42</v>
+        <v>3656.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01236</v>
+        <v>2.99833</v>
       </c>
       <c r="B99" t="n">
-        <v>7.851830000000001</v>
+        <v>3.66976</v>
       </c>
       <c r="C99" t="n">
-        <v>7851.83</v>
+        <v>3669.76</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04436</v>
+        <v>3.02649</v>
       </c>
       <c r="B100" t="n">
-        <v>7.8158</v>
+        <v>3.62591</v>
       </c>
       <c r="C100" t="n">
-        <v>7815.8</v>
+        <v>3625.91</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07636</v>
+        <v>3.05732</v>
       </c>
       <c r="B101" t="n">
-        <v>7.76168</v>
+        <v>3.60671</v>
       </c>
       <c r="C101" t="n">
-        <v>7761.68</v>
+        <v>3606.71</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10836</v>
+        <v>3.09219</v>
       </c>
       <c r="B102" t="n">
-        <v>7.732060000000001</v>
+        <v>3.61767</v>
       </c>
       <c r="C102" t="n">
-        <v>7732.06</v>
+        <v>3617.67</v>
       </c>
     </row>
   </sheetData>
